--- a/data/labeled data.xlsx
+++ b/data/labeled data.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\projects\master thesis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D5A8EB-8030-4635-88DE-52025E5440AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="296">
   <si>
     <t>text</t>
   </si>
@@ -101,12 +108,6 @@
   </si>
   <si>
     <t>we have specs with security considerations, and implementation guidelines. they're a lot more than just what bits go on the wire. in general, a bcp is too late in the process. vendors have already implemented the base spec, so what's "current" is a random grab-bag of stuff decided on by product managers, or by junior engineers. i've seen many, many, sites unable to deploy the security they want, due to a wide range of limitations in products. imho, these are security issues, and should be treated as such in the base specification. there should be clear guidance given on a wide range of issues, such as security, implementation, ui, workflow, etc. not having those guidelines is a large source of income for me. but it is endlessly frustrating for everyone involved. i would prefer to help people build useful systems, instead of having them pay me to paper over issues in multiple products.</t>
-  </si>
-  <si>
-    <t>good problem. bad solution. consider an originator pe, pe1, an rr and two receiving pes, pe2, pe3. pe1rrpe2 pe3 pe1 sends the routes. pe2 hits a limit, but pe3 does not. the rr i have drawn may be multiple rrs, a confederation or even a multi as network. pe2 should do some combination of the following: - drop the routes from pe1, - accept no more routes from pe1 (may cause loops) - send a notification to pe1. in particular, rr must not block routes from pe1, because pe3 still wants them. an orf does not satisfy the above. i would be happy to support a new message in bgp (possibly attached to a refresh message) to achieve a good solution.</t>
-  </si>
-  <si>
-    <t>not sure about this at all</t>
   </si>
   <si>
     <t>thank you for your comments and the discussion. all helped making the document better.</t>
@@ -913,14 +914,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -933,346 +928,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1280,251 +945,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1536,89 +959,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1629,7 +1121,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1657,251 +1149,239 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{00000000-0000-0000-0000-000000000000}" r:id="rId1" ax:persistence="persistStreamInit"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>106</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1025"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="20193000"/>
-              <a:ext cx="0" cy="190500"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>106</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="20193000"/>
-              <a:ext cx="0" cy="190500"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="0" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Host Control  1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="9525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Host Control  2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20193000"/>
+          <a:ext cx="9525" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:noFill/>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:noFill/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2157,19 +1637,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C281"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -2182,7 +1662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2190,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +1678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2206,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2238,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2246,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2254,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2262,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2270,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -2286,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -2294,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2313,7 +1793,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2321,7 +1801,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2329,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2348,7 +1828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2356,7 +1836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2364,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2372,7 +1852,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2385,66 +1865,66 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+      <c r="B28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
         <v>37</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2452,202 +1932,202 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
         <v>49</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
         <v>50</v>
       </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+      <c r="B46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
         <v>51</v>
       </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
         <v>52</v>
       </c>
-      <c r="B47">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
         <v>56</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
         <v>57</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
         <v>59</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
         <v>60</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+      <c r="B56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
+      <c r="B58">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
         <v>63</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2655,66 +2135,66 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>-1</v>
-      </c>
-      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
         <v>66</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
         <v>67</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
         <v>68</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
         <v>69</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>70</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>71</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+      <c r="B66">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
         <v>72</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2722,74 +2202,74 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>-1</v>
-      </c>
-      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>75</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B69">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>76</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B70">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B70">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>78</v>
       </c>
-      <c r="B71">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>79</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>80</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
         <v>81</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B75">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
         <v>82</v>
-      </c>
-      <c r="B75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2799,16 +2279,16 @@
       <c r="B76">
         <v>-1</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B77">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
         <v>85</v>
-      </c>
-      <c r="B77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2827,7 +2307,7 @@
         <v>88</v>
       </c>
       <c r="B79">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
@@ -2838,18 +2318,18 @@
         <v>90</v>
       </c>
       <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80" t="s">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+      <c r="B81">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
         <v>92</v>
-      </c>
-      <c r="B81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2859,16 +2339,16 @@
       <c r="B82">
         <v>-1</v>
       </c>
-      <c r="C82" t="s">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+      <c r="B83">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
         <v>95</v>
-      </c>
-      <c r="B83">
-        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2878,40 +2358,40 @@
       <c r="B84">
         <v>-1</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+      <c r="B85">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
         <v>98</v>
       </c>
-      <c r="B85">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+      <c r="B86">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
         <v>99</v>
       </c>
-      <c r="B86">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>100</v>
       </c>
-      <c r="B87">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+      <c r="B88">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
         <v>101</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2930,18 +2410,18 @@
         <v>104</v>
       </c>
       <c r="B90">
-        <v>-1</v>
-      </c>
-      <c r="C90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+      <c r="B91">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
         <v>106</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2949,82 +2429,82 @@
         <v>107</v>
       </c>
       <c r="B92">
-        <v>-1</v>
-      </c>
-      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>109</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
         <v>110</v>
       </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
         <v>112</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
         <v>113</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
         <v>114</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
         <v>115</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
         <v>116</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+      <c r="B101">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
         <v>117</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -3032,87 +2512,84 @@
         <v>118</v>
       </c>
       <c r="B102">
-        <v>-1</v>
-      </c>
-      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
         <v>120</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>121</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
         <v>122</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+      <c r="B106">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
         <v>123</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
         <v>124</v>
       </c>
-      <c r="B107">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
         <v>125</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
         <v>126</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
         <v>127</v>
       </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
         <v>128</v>
-      </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>129</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3120,55 +2597,55 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3176,7 +2653,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3184,15 +2661,15 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3200,39 +2677,39 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3240,74 +2717,77 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
         <v>145</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
         <v>146</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+      <c r="B130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
         <v>147</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
         <v>148</v>
       </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+      <c r="B132">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
         <v>149</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+      <c r="B133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
         <v>150</v>
       </c>
-      <c r="B133">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+      <c r="B134">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
         <v>151</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
         <v>152</v>
       </c>
-      <c r="B135">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+      <c r="B136">
+        <v>-1</v>
+      </c>
+      <c r="C136" t="s">
         <v>153</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -3315,79 +2795,76 @@
         <v>154</v>
       </c>
       <c r="B137">
-        <v>-1</v>
-      </c>
-      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>156</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
         <v>157</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
         <v>158</v>
       </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
         <v>159</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
         <v>160</v>
       </c>
-      <c r="B142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
         <v>161</v>
       </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>162</v>
-      </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B146">
         <v>-1</v>
@@ -3395,15 +2872,15 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B147">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3411,31 +2888,31 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B150">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3443,7 +2920,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3451,23 +2928,23 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3475,15 +2952,15 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3491,7 +2968,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3499,122 +2976,125 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>139</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
         <v>178</v>
       </c>
-      <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
         <v>179</v>
       </c>
-      <c r="B161">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>141</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+      <c r="B163">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
         <v>180</v>
       </c>
-      <c r="B163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+      <c r="B164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
         <v>181</v>
       </c>
-      <c r="B164">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+      <c r="B165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
         <v>182</v>
       </c>
-      <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+      <c r="B166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
         <v>183</v>
       </c>
-      <c r="B166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
         <v>184</v>
       </c>
-      <c r="B167">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+      <c r="B168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
         <v>185</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
         <v>186</v>
       </c>
-      <c r="B169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
         <v>187</v>
       </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
         <v>188</v>
       </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
         <v>189</v>
       </c>
-      <c r="B172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
         <v>190</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
+      <c r="B174">
+        <v>-1</v>
+      </c>
+      <c r="C174" t="s">
         <v>191</v>
-      </c>
-      <c r="B174">
-        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3622,106 +3102,106 @@
         <v>192</v>
       </c>
       <c r="B175">
-        <v>-1</v>
-      </c>
-      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
         <v>194</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
         <v>195</v>
       </c>
-      <c r="B177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
         <v>196</v>
       </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
         <v>197</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
         <v>198</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
         <v>199</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
         <v>200</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+      <c r="B183">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
         <v>201</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
         <v>202</v>
       </c>
-      <c r="B184">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
         <v>203</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
         <v>204</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
+      <c r="B187">
+        <v>-1</v>
+      </c>
+      <c r="C187" t="s">
         <v>205</v>
-      </c>
-      <c r="B187">
-        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3731,112 +3211,112 @@
       <c r="B188">
         <v>-1</v>
       </c>
-      <c r="C188" t="s">
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
+      <c r="B189">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>151</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
         <v>208</v>
       </c>
-      <c r="B189">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
         <v>209</v>
       </c>
-      <c r="B190">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
-        <v>153</v>
-      </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>126</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>134</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
         <v>210</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+      <c r="B195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
         <v>211</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
-        <v>128</v>
-      </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
-        <v>136</v>
-      </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
         <v>212</v>
       </c>
-      <c r="B196">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
-        <v>134</v>
-      </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
         <v>213</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+      <c r="B199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
         <v>214</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>215</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+      <c r="B201">
+        <v>-1</v>
+      </c>
+      <c r="C201" t="s">
         <v>216</v>
-      </c>
-      <c r="B201">
-        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3844,130 +3324,130 @@
         <v>217</v>
       </c>
       <c r="B202">
-        <v>-1</v>
-      </c>
-      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+      <c r="B203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
         <v>219</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+      <c r="B204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
         <v>220</v>
       </c>
-      <c r="B204">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+      <c r="B205">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
         <v>221</v>
       </c>
-      <c r="B205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
         <v>222</v>
       </c>
-      <c r="B206">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+      <c r="B207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
         <v>223</v>
       </c>
-      <c r="B207">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
         <v>224</v>
       </c>
-      <c r="B208">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
         <v>225</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+      <c r="B210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>77</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
         <v>226</v>
       </c>
-      <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+      <c r="B212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
         <v>227</v>
       </c>
-      <c r="B211">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
-        <v>79</v>
-      </c>
-      <c r="B212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
         <v>228</v>
       </c>
-      <c r="B213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
         <v>229</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
         <v>230</v>
       </c>
-      <c r="B215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+      <c r="B217">
+        <v>-1</v>
+      </c>
+      <c r="C217" t="s">
         <v>231</v>
-      </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
-        <v>216</v>
-      </c>
-      <c r="B217">
-        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3977,88 +3457,88 @@
       <c r="B218">
         <v>-1</v>
       </c>
-      <c r="C218" t="s">
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+      <c r="B219">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
         <v>234</v>
       </c>
-      <c r="B219">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
         <v>235</v>
       </c>
-      <c r="B220">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
         <v>236</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
         <v>237</v>
       </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+      <c r="B223">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
         <v>238</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
         <v>239</v>
       </c>
-      <c r="B224">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+      <c r="B225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
         <v>240</v>
       </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
+      <c r="B226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
         <v>241</v>
       </c>
-      <c r="B226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
+      <c r="B227">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
         <v>242</v>
       </c>
-      <c r="B227">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
+      <c r="B228">
+        <v>-1</v>
+      </c>
+      <c r="C228" t="s">
         <v>243</v>
-      </c>
-      <c r="B228">
-        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -4069,277 +3549,274 @@
         <v>-1</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B230">
         <v>-1</v>
       </c>
       <c r="C230" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B231">
         <v>-1</v>
       </c>
       <c r="C231" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B232">
         <v>-1</v>
       </c>
       <c r="C232" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233">
         <v>-1</v>
       </c>
       <c r="C233" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B234">
         <v>-1</v>
       </c>
       <c r="C234" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B235">
         <v>-1</v>
       </c>
       <c r="C235" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B236">
         <v>-1</v>
       </c>
       <c r="C236" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B237">
         <v>-1</v>
       </c>
       <c r="C237" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B238">
         <v>-1</v>
       </c>
       <c r="C238" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239">
         <v>-1</v>
       </c>
       <c r="C239" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B240">
         <v>-1</v>
       </c>
       <c r="C240" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B241">
         <v>-1</v>
       </c>
       <c r="C241" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B242">
         <v>-1</v>
       </c>
       <c r="C242" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B243">
         <v>-1</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244">
         <v>-1</v>
       </c>
       <c r="C244" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B245">
         <v>-1</v>
       </c>
       <c r="C245" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B246">
         <v>-1</v>
       </c>
       <c r="C246" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B247">
         <v>-1</v>
       </c>
       <c r="C247" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
+        <v>263</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
         <v>264</v>
       </c>
-      <c r="B248">
-        <v>-1</v>
-      </c>
-      <c r="C248" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
         <v>265</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
         <v>266</v>
       </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
         <v>267</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
         <v>268</v>
       </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
         <v>269</v>
       </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
         <v>270</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
         <v>271</v>
-      </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>272</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -4347,7 +3824,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -4355,7 +3832,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -4363,39 +3840,39 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -4403,7 +3880,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -4411,7 +3888,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -4419,7 +3896,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -4427,15 +3904,15 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -4443,7 +3920,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -4451,7 +3928,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -4459,7 +3936,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -4467,23 +3944,23 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" t="s">
+        <v>287</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
+      <c r="B273">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
         <v>289</v>
-      </c>
-      <c r="B273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="B274">
         <v>-1</v>
@@ -4491,15 +3968,15 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" t="s">
+        <v>290</v>
+      </c>
+      <c r="B275">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="B275">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>292</v>
       </c>
       <c r="B276">
         <v>-1</v>
@@ -4507,7 +3984,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B277">
         <v>-1</v>
@@ -4515,7 +3992,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B278">
         <v>-1</v>
@@ -4523,7 +4000,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B279">
         <v>-1</v>
@@ -4531,76 +4008,14 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B280">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B281">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <controls>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId3">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId4">
-          <controlPr defaultSize="0">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>106</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1026" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </controls>
 </worksheet>
 </file>
--- a/data/labeled data.xlsx
+++ b/data/labeled data.xlsx
@@ -1,22 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\projects\master thesis\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D5A8EB-8030-4635-88DE-52025E5440AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -749,67 +742,67 @@
     <t>i am not supportive of adoption of this document by the wg at this time. as i said during the last interim meeting, at this time, there is no security considerations section, nor a privacy considerations section. the current draft describes a mechanism but does not state how the signing key will be established and / or come from. from a security considerations point of view, if the client has the control of the private key, it might be able to voluntary transmit the private key to another client in order to mount a client collaborative attack. if the client is unable to transmit the private key to another client in order to mount a collaborative attack, it might be able to perform all the cryptographic computations that the other client needs. it is important to state which protections (or detection) features will be obtained as well as which protections (or detection) features will not be obtained. a top-down approach is currently missing. from a privacy considerations point of view, if the same public key is used to sign the messages whatever the rs is, this will allow different rss to link the requests from the same client. it is important to state which protections (or detection) features will be obtained as well as which protections (or detection) features will not be obtained. let us wait to have both the security considerations section and the privacy considerations section written, before adopting this draft as a wg document.</t>
   </si>
   <si>
-    <t>your approach to the congestion control algorithm in draft-ietf-tcpm-rfc8312bis is fundamentally flawed. the use of the proposed algorithm leads to a drastic increase in packet loss rates under certain network conditions, as evidenced by simulations using ns-3 with parameter variations (see Section 4.2.1). this creates a substantial degradation in network performance, contrary to the draft's intended goal. i strongly object to adopting this approach without addressing these issues comprehensively.</t>
+    <t>the suggested amendments in draft-ietf-xyz-protocol-07 seem misguided. the proposed header compression algorithm not only fails to deliver the expected reduction in overhead but also introduces a potential security vulnerability (section 4.2). a recent analysis indicates a 15% increase in header size under certain scenarios, undermining the draft's central goal. please reconsider the algorithm design and address the security concerns before pushing for adoption.</t>
   </si>
   <si>
     <t>synthetic sample created by ChatGPT 3.5-turbo</t>
   </si>
   <si>
-    <t>in draft-ietf-ippm-ioam-data, the specified method for data encoding fails to account for scalability concerns in large-scale deployments. the proposed encoding scheme incurs an excessive overhead of up to 30% in packet size, resulting in increased latency and network congestion, particularly in high-throughput scenarios. this drawback severely impacts real-world use cases and necessitates a reevaluation of the encoding mechanism before standardization.</t>
-  </si>
-  <si>
-    <t>section 5.3 of draft-ietf-httpbis-cache has glaring ambiguities in defining cache validation mechanisms, leading to potential inconsistencies in cache behavior across different implementations. the lack of precise guidelines in handling conditional requests undermines interoperability and poses a significant risk to the cache coherence principle. i cannot support the adoption of this draft until these ambiguities are thoroughly addressed and clarified.</t>
-  </si>
-  <si>
-    <t>the proposed modifications in draft-ietf-bier-ospf-bier-extensions introduce complexities in the control plane, significantly increasing the flooding scope and processing overhead in OSPF networks. empirical evaluations using Quagga simulations demonstrate a stark rise of up to 40% in control message propagation time, rendering the network less responsive to topology changes. i object to these extensions as they compromise the scalability and efficiency of OSPF in BIER domains.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-dots-rfc8782-bis lacks adequate considerations for DDoS attack mitigation in IPv6 environments. section 3.2 overlooks critical nuances in handling IPv6 extension headers, exposing potential vulnerabilities that adversaries could exploit to bypass mitigation measures. this oversight raises severe security concerns, and I oppose the adoption of this draft until robust mitigation strategies for IPv6 extension headers are explicitly addressed.</t>
-  </si>
-  <si>
-    <t>the proposal in draft-ietf-rtcweb-data-channel-13 neglects to address the backward compatibility with previous versions. the introduction of new data channel parameters and signaling mechanisms results in non-interoperability with existing implementations, hindering seamless migration paths for deployed systems. this departure from backward compatibility principles is a significant setback, and I cannot support this draft without proper consideration of legacy support.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-tls-dtls-connection-id introduces vulnerabilities in session resumption mechanisms. the recommended handling of connection IDs exposes susceptibility to replay attacks, as demonstrated through proof-of-concept implementations in OpenSSL and GnuTLS. this security flaw compromises the integrity of DTLS sessions and demands a thorough reassessment before standardization. i firmly oppose the adoption of this draft in its current state.</t>
-  </si>
-  <si>
-    <t>section 4.1.2 of draft-ietf-lsr-ospf-prefix-flags specifies inconsistent behavior for the handling of prefix flags across OSPF implementations. this inconsistency jeopardizes the protocol's stability and interoperability, leading to divergent routing behaviors in multi-vendor environments. i object to this lack of uniformity and urge for unambiguous guidelines to ensure consistent prefix flag interpretation across implementations.</t>
-  </si>
-  <si>
-    <t>the proposed modifications in draft-ietf-spring-srv6-network-programming yield inefficiencies in the forwarding plane. extensive simulations using P4 behavioral models reveal a marked increase of up to 25% in lookup and forwarding times due to the introduction of complex SRv6 encapsulation. these performance degradations undermine the touted advantages and necessitate a reevaluation of the forwarding plane architecture. i cannot support this draft without addressing these performance bottlenecks.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-6man-rfc6434bis overlooks critical considerations in IPv6 packet header compression techniques. section 5.1 fails to account for the impact of compression on flow label distribution, leading to imbalanced distribution patterns and potential flow disruptions in high-traffic scenarios. this oversight poses significant operational challenges and warrants a thorough reassessment of header compression strategies. i oppose the adoption of this draft until these concerns are adequately addressed.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-mmusic-sdp-uks is problematic in defining the use of unknown session-level attributes. the document lacks clarity on handling these attributes, risking inconsistent interpretation among implementations. without clear guidelines in section 5.2, it's challenging to ensure interoperability. i cannot support this draft without robust specifications for handling unknown attributes.</t>
-  </si>
-  <si>
-    <t>the proposed algorithm in draft-ietf-tsvwg-transport-encrypt amplifies header overhead by 15% in encrypted traffic, impacting network efficiency. simulations using the Mininet emulator reveal increased processing time due to additional cryptographic operations. i object to this approach without addressing its impact on network performance.</t>
-  </si>
-  <si>
-    <t>in draft-ietf-bess-mvpn-evpn-aggregation-label, the aggregation label mechanism introduces complexity in label assignment, leading to potential inconsistencies in label distribution among Provider Edge routers. empirical analysis using Juniper vMX simulations demonstrates a 20% increase in convergence time during label allocation. i oppose this draft due to its adverse impact on network convergence.</t>
-  </si>
-  <si>
-    <t>section 3.1.2 of draft-ietf-pim-source-discovery-bsr fails to account for robust error handling in source discovery messages. this oversight can result in undetected message loss, compromising the reliability of source discovery mechanisms. i object to this omission and urge for comprehensive error handling specifications before standardization.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-dnsop-nsec-aggressiveuse introduces aggressive NSEC caching, neglecting potential security implications. Analysis using BIND 9.16 shows a 30% increase in cache poisoning risk due to prolonged NSEC records retention. i cannot support this approach without addressing its impact on DNSSEC security.</t>
-  </si>
-  <si>
-    <t>the proposed extension in draft-ietf-mpls-sfc-encapsulation significantly increases MPLS packet size by 25%, impacting network scalability. simulations using GNS3 reveal reduced throughput in MPLS networks due to larger packet handling. i object to this extension without mitigating its adverse effects on network performance.</t>
-  </si>
-  <si>
-    <t>section 4.3 of draft-ietf-ccamp-flexigrid-lambda-label describes lambda label assignment ambiguities, leading to potential conflicts in label space allocation. this ambiguity poses challenges for interoperability among different vendors' implementations. i oppose this draft without precise guidelines for lambda label assignment.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-dhc-dhcpv6-yang-model overlooks critical considerations in specifying DHCPv6 server behavior during lease allocation. this omission may lead to inconsistencies in lease assignment policies across different implementations, jeopardizing network stability. i cannot support this draft without explicit guidelines for lease allocation.</t>
-  </si>
-  <si>
-    <t>the proposed protocol extension in draft-ietf-lisp-rfc6830bis introduces excessive overhead in Map-Reply messages, increasing packet size by 40%. empirical analysis using Wireshark traces highlights the impact on network congestion and latency. i object to this extension due to its adverse effects on network efficiency.</t>
-  </si>
-  <si>
-    <t>section 5.2.1 of draft-ietf-spring-srv6-network-programming lacks guidance on the handling of invalid segment IDs, potentially leading to forwarding loops in SRv6 networks. this oversight poses a significant operational risk, and I oppose this draft without addressing this concern for loop prevention mechanisms.</t>
+    <t>objections raised in the previous thread regarding draft-ietf-abc-routing-10 remain unaddressed. the new path selection mechanism outlined in section 3.4 exacerbates packet loss in networks with high contention, leading to an unacceptable degradation in performance. the simulation results provided are inadequate, covering only a limited set of scenarios. a comprehensive evaluation is needed to gauge the protocol's real-world viability. until these issues are resolved, cannot support adoption.</t>
+  </si>
+  <si>
+    <t>the draft-ietf-pqr-protocol-09 introduces unnecessary complexity without clear benefits. the inclusion of the proposed extension headers complicates packet processing and raises concerns about interoperability with existing implementations. the authors must provide concrete evidence of the benefits outweighing the added complexity. lacking such evidence, cannot endorse the draft in its current form.</t>
+  </si>
+  <si>
+    <t>concerns persist regarding the security implications of the updates proposed in draft-ietf-uvw-authentication-08. the revised cryptographic algorithms in section 5.1 are insufficiently vetted, lacking a thorough security analysis. the potential vulnerabilities identified in the recent review pose a significant threat to the protocol's integrity. unless these security issues are thoroughly addressed, cannot support the document's progression.</t>
+  </si>
+  <si>
+    <t>draft-ietf-mno-qos-12 fails to account for the dynamic nature of modern networks. the recommended quality-of-service metrics lack adaptability to changing network conditions, rendering the proposed mechanisms ineffective in real-world scenarios. additional simulations under diverse network conditions are imperative to validate the draft's performance claims. without this validation, cannot back the draft's adoption.</t>
+  </si>
+  <si>
+    <t>the alterations proposed in draft-ietf-lmn-protocol-05 inadvertently introduce a backward compatibility issue with previous versions (section 7.2). the lack of a migration plan for existing deployments jeopardizes the smooth transition to the updated protocol. authors should provide a comprehensive strategy for ensuring backward compatibility to avoid disruption. until this is addressed, objecting to the proposed changes.</t>
+  </si>
+  <si>
+    <t>draft-ietf-rst-protocol-11 introduces an unnecessary layer of complexity with the proposed state synchronization mechanism (section 4.3). the benefits outlined in the motivation section do not justify the increased resource requirements and potential synchronization delays. an in-depth analysis of the protocol's impact on system resources is needed before considering adoption. cannot support the current draft.</t>
+  </si>
+  <si>
+    <t>the suggested modifications in draft-ietf-xyz-crypto-14 introduce a significant performance overhead, as indicated by recent benchmarking results. the cryptographic primitives outlined in section 6.2 impose a 25% increase in processing time on average. this performance hit is unacceptable without clear evidence of commensurate security improvements. until a more balanced solution is proposed, cannot endorse the draft.</t>
+  </si>
+  <si>
+    <t>draft-ietf-abc-protocol-06 neglects the importance of graceful degradation under adverse network conditions. the lack of a congestion control mechanism, as highlighted in section 5.2, puts the protocol at risk of severe performance degradation in congested networks. a robust congestion control strategy is essential for ensuring the protocol's reliability in practical deployments. cannot support the draft without addressing this critical concern.</t>
+  </si>
+  <si>
+    <t>the proposed modifications in draft-ietf-pqr-encoding-13 result in an undue increase in encoding overhead, as revealed by extensive testing. the additional data required for the new encoding format contributes to a 30% rise in payload size, counteracting the draft's goal of efficiency. a more nuanced approach to encoding optimizations is needed to strike a balance between efficiency and overhead. until this is achieved, cannot lend support to the proposed changes.</t>
+  </si>
+  <si>
+    <t>the changes in draft-ietf-abc-protocol-09 lack justification. the proposed routing updates in section 3.1 offer minimal performance improvement, and the absence of real-world validation undermines their practicality. cannot support the draft without stronger evidence of its benefits.</t>
+  </si>
+  <si>
+    <t>draft-ietf-xyz-security-11 introduces unnecessary risk. the revised key exchange algorithm in section 4.3 exhibits susceptibility to recent cryptanalysis techniques, compromising the protocol's resilience. urgent reevaluation and an alternative approach are needed before considering adoption.</t>
+  </si>
+  <si>
+    <t>objections to draft-ietf-pqr-qos-07 persist. the proposed quality-of-service metrics in section 5.2 are overly optimistic and lack scalability in large networks. without comprehensive testing under varied conditions, cannot endorse the draft's adoption.</t>
+  </si>
+  <si>
+    <t>draft-ietf-uvw-protocol-06 fails to address critical feedback. the proposed header compression mechanism outlined in section 3.4 remains vulnerable to denial-of-service attacks. until effective mitigation strategies are provided, cannot support the draft.</t>
+  </si>
+  <si>
+    <t>concerns raised in previous discussions on draft-ietf-mno-protocol-10 remain unaddressed. the proposed state synchronization mechanism in section 4.2 exhibits unexpected behavior under high network load, leading to potential inconsistencies. further investigation and corrective measures are essential before supporting adoption.</t>
+  </si>
+  <si>
+    <t>the alterations in draft-ietf-lmn-encoding-08 pose interoperability challenges. the introduction of a new encoding format in section 6.1 lacks compatibility with existing implementations. without a clear migration plan, cannot back the proposed changes.</t>
+  </si>
+  <si>
+    <t>draft-ietf-rst-authentication-13 overlooks critical security considerations. the recommended cryptographic algorithms in section 5.1 are outdated and susceptible to known vulnerabilities. an immediate update addressing these security flaws is necessary before considering adoption.</t>
+  </si>
+  <si>
+    <t>the modifications proposed in draft-ietf-xyz-protocol-12 lack performance optimization. the proposed data encoding method in section 4.1 results in a 20% increase in processing time. without a compelling reason for this sacrifice, cannot endorse the draft.</t>
+  </si>
+  <si>
+    <t>draft-ietf-abc-encoding-09 raises concerns about payload efficiency. the new encoding format outlined in section 7.2 incurs a 25% increase in packet size. a more efficient encoding approach is needed before considering adoption.</t>
+  </si>
+  <si>
+    <t>the changes in draft-ietf-pqr-routing-14 introduce a scalability bottleneck. the proposed path selection algorithm in section 3.3 exhibits suboptimal performance in large-scale networks. until scalability concerns are addressed, cannot support the draft's progression.</t>
   </si>
   <si>
     <t>the purpose of the text is not to mandate 3pcc to be implemented in a specific way. the purpose is to point out that if 3pcc is implemented in a way that the 3pcc controller receives a subsequent bundle offer from an endpoint currently in a session, it needs to convert it into an initial bundle offer before forwarding it to an endpoint that is currently not in a session.</t>
@@ -914,8 +907,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -928,16 +927,346 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -945,9 +1274,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -959,158 +1530,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -1121,7 +1623,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1149,47 +1651,161 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1203,18 +1819,9 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1025"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Host Control  1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1242,18 +1849,9 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s1026"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="Host Control  2" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1281,22 +1879,16 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Host Control  1"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20193000"/>
+          <a:off x="0" y="20002500"/>
           <a:ext cx="9525" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1338,22 +1930,16 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Host Control  2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="20193000"/>
+          <a:off x="0" y="20002500"/>
           <a:ext cx="9525" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1637,19 +2223,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A246" sqref="A246"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1662,7 +2248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1670,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1686,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1694,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1702,7 +2288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1710,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1718,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1734,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1742,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1750,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1758,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1766,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1774,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1793,7 +2379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1801,7 +2387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1809,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1828,7 +2414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +2422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1844,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1852,7 +2438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1860,7 +2446,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1868,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1884,7 +2470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1892,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1900,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1908,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1927,7 +2513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1935,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1943,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1951,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1959,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1967,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1975,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1983,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1991,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1999,7 +2585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -2007,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -2015,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -2023,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -2031,7 +2617,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -2039,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2047,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -2055,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -2063,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -2071,7 +2657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2079,7 +2665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2087,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2095,7 +2681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2103,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2111,7 +2697,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2130,7 +2716,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -2138,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -2146,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -2154,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -2162,7 +2748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -2170,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -2178,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -2197,7 +2783,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -2205,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -2213,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -2221,7 +2807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2229,7 +2815,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -2237,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -2245,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -2253,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -2272,7 +2858,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>83</v>
       </c>
@@ -2313,7 +2899,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -2332,7 +2918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -2351,7 +2937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -2359,7 +2945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -2367,7 +2953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -2375,7 +2961,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -2405,7 +2991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>104</v>
       </c>
@@ -2424,7 +3010,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>107</v>
       </c>
@@ -2432,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -2440,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>109</v>
       </c>
@@ -2448,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>110</v>
       </c>
@@ -2456,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>111</v>
       </c>
@@ -2464,7 +3050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>112</v>
       </c>
@@ -2472,7 +3058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>113</v>
       </c>
@@ -2480,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -2488,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>115</v>
       </c>
@@ -2507,7 +3093,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>118</v>
       </c>
@@ -2515,7 +3101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>119</v>
       </c>
@@ -2523,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -2531,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>121</v>
       </c>
@@ -2539,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>122</v>
       </c>
@@ -2547,7 +3133,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>123</v>
       </c>
@@ -2555,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>124</v>
       </c>
@@ -2563,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>125</v>
       </c>
@@ -2571,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>126</v>
       </c>
@@ -2579,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>127</v>
       </c>
@@ -2587,7 +3173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -2723,7 +3309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>145</v>
       </c>
@@ -2731,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>146</v>
       </c>
@@ -2739,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>147</v>
       </c>
@@ -2747,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>148</v>
       </c>
@@ -2755,7 +3341,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>149</v>
       </c>
@@ -2763,7 +3349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>150</v>
       </c>
@@ -2771,7 +3357,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>151</v>
       </c>
@@ -2790,7 +3376,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>154</v>
       </c>
@@ -2798,7 +3384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>155</v>
       </c>
@@ -2806,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>156</v>
       </c>
@@ -2814,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>157</v>
       </c>
@@ -2822,7 +3408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>158</v>
       </c>
@@ -2830,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +3424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>160</v>
       </c>
@@ -2846,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -2982,7 +3568,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>139</v>
       </c>
@@ -2990,7 +3576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -2998,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>179</v>
       </c>
@@ -3006,7 +3592,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>180</v>
       </c>
@@ -3014,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>181</v>
       </c>
@@ -3022,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>182</v>
       </c>
@@ -3030,7 +3616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>183</v>
       </c>
@@ -3038,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>184</v>
       </c>
@@ -3046,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>185</v>
       </c>
@@ -3054,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>186</v>
       </c>
@@ -3062,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>187</v>
       </c>
@@ -3070,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>188</v>
       </c>
@@ -3078,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>189</v>
       </c>
@@ -3097,7 +3683,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>192</v>
       </c>
@@ -3105,7 +3691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>193</v>
       </c>
@@ -3113,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>194</v>
       </c>
@@ -3121,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>195</v>
       </c>
@@ -3129,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>196</v>
       </c>
@@ -3137,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>197</v>
       </c>
@@ -3145,7 +3731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>198</v>
       </c>
@@ -3153,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>199</v>
       </c>
@@ -3161,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>200</v>
       </c>
@@ -3169,7 +3755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>201</v>
       </c>
@@ -3177,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>202</v>
       </c>
@@ -3185,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>203</v>
       </c>
@@ -3204,7 +3790,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>206</v>
       </c>
@@ -3212,7 +3798,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>207</v>
       </c>
@@ -3220,7 +3806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>151</v>
       </c>
@@ -3228,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>208</v>
       </c>
@@ -3236,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>209</v>
       </c>
@@ -3244,7 +3830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>126</v>
       </c>
@@ -3252,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>134</v>
       </c>
@@ -3260,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>210</v>
       </c>
@@ -3268,7 +3854,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>132</v>
       </c>
@@ -3276,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>211</v>
       </c>
@@ -3284,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>212</v>
       </c>
@@ -3292,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>213</v>
       </c>
@@ -3300,7 +3886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>214</v>
       </c>
@@ -3319,7 +3905,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>217</v>
       </c>
@@ -3327,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -3335,7 +3921,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>219</v>
       </c>
@@ -3343,7 +3929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>220</v>
       </c>
@@ -3351,7 +3937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>221</v>
       </c>
@@ -3359,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>222</v>
       </c>
@@ -3367,7 +3953,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>223</v>
       </c>
@@ -3375,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>224</v>
       </c>
@@ -3383,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:3">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>225</v>
       </c>
@@ -3391,7 +3977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>77</v>
       </c>
@@ -3399,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>226</v>
       </c>
@@ -3407,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>227</v>
       </c>
@@ -3415,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>228</v>
       </c>
@@ -3423,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>229</v>
       </c>
@@ -3431,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -3450,7 +4036,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>232</v>
       </c>
@@ -3458,7 +4044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>233</v>
       </c>
@@ -3466,7 +4052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>234</v>
       </c>
@@ -3474,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>235</v>
       </c>
@@ -3482,7 +4068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>236</v>
       </c>
@@ -3490,7 +4076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>237</v>
       </c>
@@ -3498,7 +4084,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>238</v>
       </c>
@@ -3506,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -3514,7 +4100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>240</v>
       </c>
@@ -3522,7 +4108,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -3750,7 +4336,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -3758,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -3766,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -3774,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -3782,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -3790,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -3798,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -3806,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -3814,7 +4400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>271</v>
       </c>
@@ -4016,6 +4602,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/labeled data.xlsx
+++ b/data/labeled data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Desktop\projects\master thesis\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF70A48-2EFC-4C39-8022-F29E3A096F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12210"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="254">
   <si>
     <t>text</t>
   </si>
@@ -22,9 +28,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>i support the adoption of the draft. it provides a suitable solution for the very relevant topic of inter-domain constrained path setup, which will become even more relevant in the next future.</t>
   </si>
   <si>
@@ -73,9 +76,6 @@
     <t>i don't know how esps and from rewrite ended up in the same sentence. esps do not need from rewrite because they can do dkim signing. the incentives are all against them using or allowing from rewrite. taking business from criminal clients does not include allowing one client to impersonate another client or a non-client. such behavior would hurt the revenue of the esp.</t>
   </si>
   <si>
-    <t>seems to be slightly negative, but I am not sure</t>
-  </si>
-  <si>
     <t>this still contains this gem: "* rtt_typ is taken as 25 ms. this is based on an average cdn latency measured in each country weighted by the number of internet users in that country to produce an overall weighted average for the internet [pi2param]. countries were ranked by number of internet users, and once 90% of internet users were covered, smaller countries were excluded to avoid unrepresentatively small sample sizes. also, importantly, the data for the average cdn latency in china (with the largest number of internet users) has been removed, because the cdn latency was a significant outlier and, on reflection, the experimental technique seemed inappropriate to the cdn market in china." this is still massively misrepresenting the data from its original source and still seems to continue the fiction that in nigeria the average cdn latency to be 4ms. the whole "theory" of selecting the classic target seems to be wrong on multiple levels. "this is based on an average cdn latency measured in each country" is simply wrong, the study the data was sourced from measured the average rtt between up to 50 measurement nodes per country to 7 different cdns and reported per country the smallest per cdn average number. this is not a meaningful "average cdn latency" that is representative for the "internet"[link] and removing china, because the value appears to hight for the taste of the authors seems scientifically [link] especially since nigeria s still included with an average cdn latency of 4ms, which, as i posted multiple times is not representative for [link] really, as it stands the [pi2param] briscoe, b"pi2 parameters", technical report tr-bb-2021-001 arxiv:[link] [[link]], july 2021 &lt;[link]&gt;. would not make it through peer review.</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
     <t>i support the wg adoption. answers to the questions posted by the chair: 1) will this new orf filter reduce routing information at key points? yes, the proposed approach prevents more routes sent to a pe whose vrf overflows. 2) should the wg consider this draft given it has an ipr claim or would the idr wg prefer another approach? yes, because the ipr has frand royalty-bearing licenses 3) is this draft ready to be adopted and refined as wg draft? yes. some questions to the author: 1) on page 3 (right below figure 1), you have: "when the vrf of vpn1 in pe1 overflows, due to pe1 and other pes are not ibgp neighbors, bgp maximum prefix features cannot work, so the problem on pe2 cannot be known" do you mean that "the problem on pe1 cannot be known" to others? 2) 2 does pe1 have preconfigured "bgp maximum prefixes" expected from others? if more than expected prefixes are received, is it because other pes' fault in sending trashing prefixes? or is it because the pe1 configuration error? 3) rd-orf route-refresh message is propagated to all other pes, do all the pes receiving the message stop sending "that vpn route" (as described in [link]</t>
   </si>
   <si>
-    <t>draft is supported, yet the rest of the text is netural</t>
-  </si>
-  <si>
     <t>i have read this draft, and believe it is technique sound and well-written. i support to move it forward. brs,</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>yes, i'm aware of this aspect of message authentication. that wasn't my question. the point of an np test was, in my understanding, to identify names that i understand the first sentence. i do not see how the second follows. however, if mx/a/aaaa is really the right test for fraudulent identifiers, i don't follow this either. why do i need to provide case studies? isn't the burden of proof on the because i'm trying to understand your concern. sure, it's reasonable for us to question our assumptions. but if i don't understand how you get your premises, or how your premises lead to your conclusions, am i being unreasonable when i ask for clarification or concrete examples?</t>
   </si>
   <si>
-    <t>not sure, seems to have a negative tone</t>
-  </si>
-  <si>
     <t>thank you, that's really useful information.</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>it is not: the rest-level (here coap) content-type is the media-type of the whole thing (as packaged in cose-sign1), while the cose content-type is just the media-type of the payload. except in somewhat unlikely cases, these are not the same. no, no, no… you just created busywork for interoperability testing. please decide for one option here and stick with that!</t>
   </si>
   <si>
-    <t xml:space="preserve">not sure about this, latter part of the message seems negative, but not very explicitly </t>
-  </si>
-  <si>
     <t>i support adoption of draft-white-tsvwg-l4sops and will help with the review of the document /ingemar</t>
   </si>
   <si>
@@ -232,9 +223,6 @@
     <t>given that the author requested discussion on the list, i would have assumed that on-list followup of substantive issues (and for all i agree with ti, this is substantive) would be on list. in other working groups with a cleaner distinction between adopted and not-yet-adotped, and with other authors, i probably would have kept quiet even if i was surprised. in this case, the sequence of events looks liek sliding down an unfortuante slope.</t>
   </si>
   <si>
-    <t>last part specifically looks somewhat negative</t>
-  </si>
-  <si>
     <t>yes, this is a useful document and good enough to serve as a basis for wg effort in this space. we should adopt it.</t>
   </si>
   <si>
@@ -262,48 +250,30 @@
     <t>this draft presents a peculiar way of bringing something similar to bridge-domain/bridge-table concepts into [link] one significant problem, in my opinion, is that you not only introduce a new dataplane dependency; but also propose to _redefine_ vxlan-gpe header semantics (instead of just using it, or geneve). i would assume you have to go to nvo3 wg for the proposed vxlan-gpe format changes (either with the full draft or splitting it into 2 parts (control &amp; data plane)). additionally, i would like to see more text on the motivation of the proposed solution. in the abstract you make a point that this draft proposes a new solution which can simplify the deployment of layer-3 accessible evpn service. -&gt; this simplicity is not obvious at all, and one may argue that this solution is more complex compared to the existing ones (such as draft inter-subnet-forwarding with multiple ip-vrfs)</t>
   </si>
   <si>
-    <t>not sure about this: the message points out many drawbacks, although the tone is not neccesserily overly negative</t>
-  </si>
-  <si>
     <t>it takes an awful lot here for me to bother to reply to a thread. here is a better algorithm to find the truth. purchase any of dozens of commercial routers today running cake or fq_codel, or the thousands available via reflash to openwrt/dd-wrt/tomato construct a repeatable experiment, and publish the code and results. the results from running, repeatable, code trumps theoretical objections every time. the evenroute v3 and edgerouter x series are pretty good bases for experimentation. wilful ignorance, and the lack of a willingness to construct repeatable experiments is not science. if you have a point to make, make it with a repeatable experiment against running code, please. tuning out again.</t>
   </si>
   <si>
     <t>many have raised the difficulty of establishing an identity for the network and confirming that claims received by the client were produced by the network operator. that is a challenge, but it is not my principal concern. my main concern is that when we move from encoding what the network offers to what it "allows", we are discussing the ietf blessing certain terms of service as technical standards. terms of service are a thoroughly human, legal construct, not a mechanical handshake. they represent an unbounded conceptual space that cannot be neatly quantized into an iana registry. their interpretation is subject to social norms and judges' rulings. does "splitdnsallowed: false" forbid the use of corporate vpn tunnels? dns entries already in cache? mdns? using "dig" over ssh? alternate dns servers if needed due to a medical emergency? namecoin? does ignoring this json blob constitute a violation of the us computer fraud and abuse act? i don't want answers; i want to make sure that we don't have to ask these questions. standardizing terms of service opens pandora's box. the list of things that someone somewhere wants to tell a user not to do on their network is endless, and the ietf should not be in the business of judging which of these requests are appropriate. (and we surely must judge, as some requests are clearly unconscionable.) as a practical matter, no such request can command ietf consensus, nor the consensus of this working group. that's why the add charter goes to some length to remind us not to be distracted by them. if you want to invest in improving network identity attribution, let's ensure that when users are reviewing the network's terms of service, they know exactly who the network operator is.</t>
   </si>
   <si>
-    <t>the overall tone seems to be pretty negative</t>
-  </si>
-  <si>
     <t>dmarc does not assess "honesty" nor does it assess "fraudulence". it only determines whether something passes or fails the validation check. you are apparently trying to overload your value interpretations in a manner that does not exist in the standard.</t>
   </si>
   <si>
-    <t>not sure about this one</t>
-  </si>
-  <si>
     <t>a reminder to everyone: (i didn't want to say this n times in the thread) "please remember we (all of us) are here trying to make the internet safer/better. people aren't actually trying to torpedo you/your-ideas/etc, we (all of us) are trying to work through possible problems/solutions in an effort to 'make the internet safer/better'" so, with that in mind, please remember that before hitting 'send' we (all of us) need to verify that we are talking about the problems/solutions in the proposal and not upset about how our coffee is not hot right now :( (i need better coffee) this makes sense to me, sadly for the document, but happily for the discussion and the process/end-result which i hope will be better once we finish sorting out aspa docs. pending other wg-chair comments, we can do this in the next short while.</t>
   </si>
   <si>
-    <t>it should probably be -1</t>
-  </si>
-  <si>
     <t>i object the adoption of this document</t>
   </si>
   <si>
     <t>good luck philip. maybe you like to reinvent the wheel?</t>
   </si>
   <si>
-    <t>this is a tricky one, but might be teasing, thus negative</t>
-  </si>
-  <si>
     <t>there is a lot of useful work in core's charter which is not getting done. i probably have even more wounds on this than you. but, we won't get it done here. let's not say we are going to try. it's because i think it's useful that i think it deserves its own place. when a wg has so many focuses it has no focuses. i point to opsawg. i think that we all agree that the existing charter would never get approved today. that's why rechartering is scary.</t>
   </si>
   <si>
     <t>it is hard to follow where you are suggesting port-active needs to change, vs your i-d, or what is general feedback. as with all df-election algorithms port-active elects a df, a bdf and {[link]} ndfs. may we insist you start another, separate, thread to discuss the proposed i-d and not on the port-active wglc thread ?</t>
   </si>
   <si>
-    <t>probably negative if we consider that suggestion is bad, not sure</t>
-  </si>
-  <si>
     <t>creating lots of special rules makes me feel uncomfortable. is there evidence that people reduce state value spaces a lot and in isolation, [link], they just rev a module to reduce some state value spaces? /js</t>
   </si>
   <si>
@@ -319,24 +289,15 @@
     <t>i'm asking you as author to understand, explain, and defend the draft that you wrote. the issue is *exactly* that you didn't state opinions. jouni malinen brought up the question of rfc 4137 [link] years ago, in the message you referred to recently. this isn't new. such as? why? perhaps the draft could be updated to *explain* these issues? i'm still rather surprised that with open issues, the suggestion was that the "best way forward" was just to publish the draft. it's simply not. no. i am never of the opinion that the most important goal is to publish. while timeliness is important, if we don't *understand* what we're publishing, then that is a total show-stopper. we have to hold off publishing "something" until we understand exactly what we're doing. while i mostly like -13, it's not clear to me what, if any, utility the commitment message has. when i ask "what does it do, and why", it's not helpful to answer "we added it years ago". if the draft cannot explain the pros and cons of it's choices, then the draft should be updated to do that. if it's not clear *why* content is in the draft, then we should figure it out. that's why i'm asking questions, and why i would very much appreciate answers to those questions.</t>
   </si>
   <si>
-    <t>the overall tone seems to be negative</t>
-  </si>
-  <si>
     <t>ad 1-3) as a contributor i do not support progressing the document in the current form. in my opinion set of requirements is too broad to what is required to provide a simple discovery of bgp peer candidate. imo single bit in lldp message or as proposed either bgp open to link multicast or sort message to link multicast should suffice. number of requirements already duplicate what is exchanged between peers in bgp open. is a bgp speaker capable of autodiscovery supposed now to filter peers with the same bgp_id ? why are we stating something against rfc5082 which says: "if, however, dynamic negotiation of gtsm support is necessary, protocol messages used for such negotiation *must be authenticated* using other security mechanisms to prevent dos attacks. why do we need to send a device role and what rfc defines the device role ? you can't put requirements in place something which is today nowhere deployed. support afi/safi is already covered by bgp capability negotiation. do we need to repeat those procedures here ? requirements list ipsec as one of transport security options and now what if peer exchange such requirement ? is this optional for a candidate peer or mandatory ? what if list of transport security requirements is exchanged ? is there no requirement for preference order ? ad 4) we have been working in idr for many years on [link] so now perhaps more valuable would be to review this work instead of creating a requirements document ?</t>
   </si>
   <si>
-    <t>big message, but the beginning clearly states 'do not support'</t>
-  </si>
-  <si>
     <t>authors of the above draft, we need iana assignments and registries contained in draft-bier-lsr-ethernet-extensions to progress further wg drafts here. the authors have been given couple of heads up behind the scenes to re-publish the according draft given it expired 6 months ago. as wg chair i would request with this email for an update/re-publish so i can call the iana assignments. if we don't see a re-publish within the next 2 weeks we will consider to call/assign an editor to the draft to keep it alive.</t>
   </si>
   <si>
     <t>the average sip invite size for the us pstn is 1kb without identity. this was working great with udp for most customers (do not confuse them with sip standard implementors). when these people start seeing an extra 2-3% of call failures, they blame everybody but not their pstn provider sbc vendor. the only thing they care about and need is to keep their phones ringing and calls completing.</t>
   </si>
   <si>
-    <t>not easy to tell, but the tone behing the comment is probably negative</t>
-  </si>
-  <si>
     <t>the arp extension discussed in this document is a good addition to the label-distribution toolkit and can potentially be the simplest option available for certain deployments. i support wg adoption.</t>
   </si>
   <si>
@@ -367,9 +328,6 @@
     <t>i spend rather too much time doing disinformation analysis these days. but one of the issues that keeps coming up is what sartre called a 'bad faith' argument which is an unfortunate term in that people end up doing it without being aware of it, no malice involved. what sartre was describing was an argument in which there are two separate frames of reference used. the first frame is used to establish that x applies, then once that is achieved the first frame is discarded and x is interpreted in the second frame. to take an example: frame 1: tony blair implemented many polices that are described in a paper by milton friedman when the latter was shilling for a position in the democratic administration of harry truman: blair is a 'neoliberal'. frame 2: neoliberal milton friedman shilled for and was successful in getting a consulting role in the pinochet regime. therefore neoliberals support pinochet. therefore blair supports pinochet. therefore blair supports the mass murder of 30,000 people. i am seeing similar in the oauth discussion: frame 1: x must use oauth it is simple! frame 2: you have to understand how to apply oauth correctly. the turbo-encabulator mode is very powerful let me stroke my beard while you come to that understanding. and yes, folk are going to get upset about having their arguments presented in this fashion but i really don't know how else to get through to them the reasons why the people on the receiving end of those arguments are getting upset. there is a real problem in trying to get across unwelcome information. the ground problem for many of us with oauth is that we simply cannot understand it. and we rather suspect the problem isn't on our side. i have come to find that not being able to understand things that exceed a certain complexity is actually a profound advantage in architecture. the real value of formal methods turns out to be they force people to reduce the problem to something simple enough to write proofs about. this is one of the reasons i would like to see the ietf move towards a w3c style plenary in which wgs are required to provide short introductions to what they do. no, not status reports: an elevator pitch. because if nobody in the group can describe what is going on with clarity, well perhaps they don't know themselves. it is really difficult to know what to do in these circumstances. i tell people my criteria for adopting a technology early on. if they meet my criteria, i will attempt to make use of their work product. but i feel absolutely no obligation to do so if they don't.</t>
   </si>
   <si>
-    <t>but seems to have a negative tone behind it</t>
-  </si>
-  <si>
     <t>many thanks for the effort put into this document. i like the revised version but i will like it even more if it addresses this pending comment :-)</t>
   </si>
   <si>
@@ -475,9 +433,6 @@
     <t>all the comments has been purely regarding the iana registrations for cose. to my understanding you did not discuss these registrations with the dedicated iana experts or the cose wg beforehand. the suggested cose registration are quite strange. any delay is purely due to you not discussing and anchoring these registrations. i have suggested that that this issue is discussed at the interim on tuesday, but it is not my job to drive your registrations. i am just commenting on the questions from the dedicated iana experts. you can always remove the cose registrations, but i think that would be sad. i agree with you that a registration for wei25519 is good to have. another alternative is to move the registration to a separate draft. you cannot just change the status from informational to standards track. they are very different things. informational is just general information, while standards track means ietf consensus and recommendation. changing the status would (i assume) require wg consensus and then redoing the last calls.</t>
   </si>
   <si>
-    <t>hard one - the message is relatively neutral, but the first half of it seems to include critique. not sure about the label.</t>
-  </si>
-  <si>
     <t>thank you for patiently going through several iterations of changes. the document is very ready. i had a very few nits or clarifications, should you choose to consider them for those, they are attached as html diff.</t>
   </si>
   <si>
@@ -589,9 +544,6 @@
     <t>* imo it's fine to contact the authors of an original rfc and point out that an update is needed. but it's really presumptuous and rude to appoint oneself a co-author of a bis document and suggest that the original authors should become co-authors. imo that should be a last resort option, for the cases where the original authors aren't willing to revise their document, not the first suggestion made. i am not sure i understand you. are you saying that once an rfc is authored, any bis work must first be offered to the original authors? if so, what about when the wg has been shut (lamps instead of pkix)? or this case, where someone wrote a draft and the wg adopted it. should the wg then ask the new author to wait until theyve heard from the original authors? in this case, was i mistaken to submit a draft without first contacting jeff and peter before doing anything?</t>
   </si>
   <si>
-    <t>not sure</t>
-  </si>
-  <si>
     <t>sounds like a very interesting and useful project. you plan to use the rats interaction models coap protocol, which is great. in charra, we also use it, more or less. charra is currently still under active development, although there have not been updates to the official github repository for quite a while. but, expect (major) updates in the not-too-distant future. :-) having a bluetooth binding for charra would be awesome. feel free to ask me any further questions and get in touch with me/us also privately.</t>
   </si>
   <si>
@@ -631,9 +583,6 @@
     <t>we can definitely start without that general purpose security mechanism being proven, by using other proven mechanisms to solve the same problem. there's no reason we need to depend on nor utilize httpsig for solving the problems hoped to be achieved with this draft. but we do need to stipulate concretely what should be solved by the draft and then we can discuss what's the right approach. if we are saying dpop is the right approach to solve it, we have a draft already (we would need to discuss whether an alternative is the right approach or reusing that one/making adjustments). perhaps dpop isn't the right approach, and maybe it is, but we need to start at the beginning. right now it just seems we are haphazardly throwing out an implementation for a draft standard for the sake of implementing that standard. "there are people that want to use it" isn't productive, what is productive is describing the core problem that they are facing, the why, and attacking it problem-first, not solution-first. it also sounds like we want to justify that work with an authored rfc from the oauth wg. okay, we can push that work, but it needs to be focused on core problems and solutions revolving in the oauth space, and not done in a way for the sole purpose of justifying the work another draft is setting up. i don't think any one is doubting the benefits that could be gained, but we should be doubting if this is the right way from an oauth perspective and the direction we want to go. we should enumerate those, work on refining what is in scope and going from there. the problem with the current draft, is that it doesn't give us an adequate starting point, sure we can push everything to the wg to solve every open point, but i for one, would like to see at least a partial draft that attempts to outline the problem and include a solution which supports a majority of use cases, without being a very niche collaboration with the existing signature draft.</t>
   </si>
   <si>
-    <t>not strictly negative, but the proposed draft seems to be flawed</t>
-  </si>
-  <si>
     <t>&lt;sigh&gt; this thread is sooo boring. we are all past the issue of tcp vs udp and tcp keep alive at the edge. just get over it. resistance is futile. dont be surprised if history info is mandated over time to support traceback. then you will see a serious invite. the regulators are not being very forgiving these days. the fcc has issued some interesting orders re petitions for reconsideration and letters of excommunication to operators that wont comply. [link] [link] [link] the crtc has granted some extensions but the effect is very very clear. [link] this is the #1 complaint ive seen in consulting with various operators for a project im undertaking for a well known regulator along with full canonicalization of the [link] number in the invite etc. and and the inability to negotiate a ip voice interconnection agreement. film at 11</t>
   </si>
   <si>
@@ -664,9 +613,6 @@
     <t>&lt;snip&gt; while this may be your personal opinion, it is not a fact. i have previously pointed out that there are organizations that lease/rent or otherwise provide subdomains as part of their commercial offerings. your assertion is akin to claiming that tenants in an apartment building are family relatives simply because they have the same landlord. we can identify a relationship between [link] and [link] we can also identify a relationship between [link] and [link] in both of these cases someone with control over [link] created the dns records that brought the subdomains into existence. we cannot identify a meaningful relationship between [link] and [link] because we have no way of knowing whether such a relationship exists or if they are independent actors. if we were to accept your argument in favor of this approach it opens up a very large attack [link] finds sites (think blog hosting websites for example) where multiple independent parties use subdomains. this would be a great approach for targeted attacks against ngos, journalists, etc.</t>
   </si>
   <si>
-    <t>overall attitude seems to be negative, but not sure</t>
-  </si>
-  <si>
     <t>i had defined 3 bits in l2-gw-proto, in anticipation of more/many load-balancing [link] but that now seems somewhat aggressive. i dont mind scaling back down to 2-bitfield or just a new sfa bit by itself. another suggestion could be to create the registry directly with draft-7432bis ?</t>
   </si>
   <si>
@@ -709,9 +655,6 @@
     <t>emphatically disagree. i want ietf to be more inclusive because i think it results in better standards and better service to the internet community. but tuning for specific categories is just trying to replace one set of prejudices with another.</t>
   </si>
   <si>
-    <t>not harsh, but still negative</t>
-  </si>
-  <si>
     <t>i'll explain my position of not taking a stance on this document. the available data suggest that l4s and conventional traffic cannot coexist safely in the same rfc3168 signaling queue, and that those queues have been deployed to some extent. i don't think this is something that operational guidance by itself can fix, and would prefer to see that addressed first. however, i'm also not sure that impeding progress on this document is helpful. in case the wg decides that there is rough consensus to proceed with known safety issues, then i'd likely be among those insisting on wglc for this draft together with the l4s drafts. this will provide published information on what to expect, and document what issues were known by the ietf prior to approval for experiment. if the document is adopted, then i should be able to provide at least one review down the line.</t>
   </si>
   <si>
@@ -740,69 +683,6 @@
   </si>
   <si>
     <t>i am not supportive of adoption of this document by the wg at this time. as i said during the last interim meeting, at this time, there is no security considerations section, nor a privacy considerations section. the current draft describes a mechanism but does not state how the signing key will be established and / or come from. from a security considerations point of view, if the client has the control of the private key, it might be able to voluntary transmit the private key to another client in order to mount a client collaborative attack. if the client is unable to transmit the private key to another client in order to mount a collaborative attack, it might be able to perform all the cryptographic computations that the other client needs. it is important to state which protections (or detection) features will be obtained as well as which protections (or detection) features will not be obtained. a top-down approach is currently missing. from a privacy considerations point of view, if the same public key is used to sign the messages whatever the rs is, this will allow different rss to link the requests from the same client. it is important to state which protections (or detection) features will be obtained as well as which protections (or detection) features will not be obtained. let us wait to have both the security considerations section and the privacy considerations section written, before adopting this draft as a wg document.</t>
-  </si>
-  <si>
-    <t>the suggested amendments in draft-ietf-xyz-protocol-07 seem misguided. the proposed header compression algorithm not only fails to deliver the expected reduction in overhead but also introduces a potential security vulnerability (section 4.2). a recent analysis indicates a 15% increase in header size under certain scenarios, undermining the draft's central goal. please reconsider the algorithm design and address the security concerns before pushing for adoption.</t>
-  </si>
-  <si>
-    <t>synthetic sample created by ChatGPT 3.5-turbo</t>
-  </si>
-  <si>
-    <t>objections raised in the previous thread regarding draft-ietf-abc-routing-10 remain unaddressed. the new path selection mechanism outlined in section 3.4 exacerbates packet loss in networks with high contention, leading to an unacceptable degradation in performance. the simulation results provided are inadequate, covering only a limited set of scenarios. a comprehensive evaluation is needed to gauge the protocol's real-world viability. until these issues are resolved, cannot support adoption.</t>
-  </si>
-  <si>
-    <t>the draft-ietf-pqr-protocol-09 introduces unnecessary complexity without clear benefits. the inclusion of the proposed extension headers complicates packet processing and raises concerns about interoperability with existing implementations. the authors must provide concrete evidence of the benefits outweighing the added complexity. lacking such evidence, cannot endorse the draft in its current form.</t>
-  </si>
-  <si>
-    <t>concerns persist regarding the security implications of the updates proposed in draft-ietf-uvw-authentication-08. the revised cryptographic algorithms in section 5.1 are insufficiently vetted, lacking a thorough security analysis. the potential vulnerabilities identified in the recent review pose a significant threat to the protocol's integrity. unless these security issues are thoroughly addressed, cannot support the document's progression.</t>
-  </si>
-  <si>
-    <t>draft-ietf-mno-qos-12 fails to account for the dynamic nature of modern networks. the recommended quality-of-service metrics lack adaptability to changing network conditions, rendering the proposed mechanisms ineffective in real-world scenarios. additional simulations under diverse network conditions are imperative to validate the draft's performance claims. without this validation, cannot back the draft's adoption.</t>
-  </si>
-  <si>
-    <t>the alterations proposed in draft-ietf-lmn-protocol-05 inadvertently introduce a backward compatibility issue with previous versions (section 7.2). the lack of a migration plan for existing deployments jeopardizes the smooth transition to the updated protocol. authors should provide a comprehensive strategy for ensuring backward compatibility to avoid disruption. until this is addressed, objecting to the proposed changes.</t>
-  </si>
-  <si>
-    <t>draft-ietf-rst-protocol-11 introduces an unnecessary layer of complexity with the proposed state synchronization mechanism (section 4.3). the benefits outlined in the motivation section do not justify the increased resource requirements and potential synchronization delays. an in-depth analysis of the protocol's impact on system resources is needed before considering adoption. cannot support the current draft.</t>
-  </si>
-  <si>
-    <t>the suggested modifications in draft-ietf-xyz-crypto-14 introduce a significant performance overhead, as indicated by recent benchmarking results. the cryptographic primitives outlined in section 6.2 impose a 25% increase in processing time on average. this performance hit is unacceptable without clear evidence of commensurate security improvements. until a more balanced solution is proposed, cannot endorse the draft.</t>
-  </si>
-  <si>
-    <t>draft-ietf-abc-protocol-06 neglects the importance of graceful degradation under adverse network conditions. the lack of a congestion control mechanism, as highlighted in section 5.2, puts the protocol at risk of severe performance degradation in congested networks. a robust congestion control strategy is essential for ensuring the protocol's reliability in practical deployments. cannot support the draft without addressing this critical concern.</t>
-  </si>
-  <si>
-    <t>the proposed modifications in draft-ietf-pqr-encoding-13 result in an undue increase in encoding overhead, as revealed by extensive testing. the additional data required for the new encoding format contributes to a 30% rise in payload size, counteracting the draft's goal of efficiency. a more nuanced approach to encoding optimizations is needed to strike a balance between efficiency and overhead. until this is achieved, cannot lend support to the proposed changes.</t>
-  </si>
-  <si>
-    <t>the changes in draft-ietf-abc-protocol-09 lack justification. the proposed routing updates in section 3.1 offer minimal performance improvement, and the absence of real-world validation undermines their practicality. cannot support the draft without stronger evidence of its benefits.</t>
-  </si>
-  <si>
-    <t>draft-ietf-xyz-security-11 introduces unnecessary risk. the revised key exchange algorithm in section 4.3 exhibits susceptibility to recent cryptanalysis techniques, compromising the protocol's resilience. urgent reevaluation and an alternative approach are needed before considering adoption.</t>
-  </si>
-  <si>
-    <t>objections to draft-ietf-pqr-qos-07 persist. the proposed quality-of-service metrics in section 5.2 are overly optimistic and lack scalability in large networks. without comprehensive testing under varied conditions, cannot endorse the draft's adoption.</t>
-  </si>
-  <si>
-    <t>draft-ietf-uvw-protocol-06 fails to address critical feedback. the proposed header compression mechanism outlined in section 3.4 remains vulnerable to denial-of-service attacks. until effective mitigation strategies are provided, cannot support the draft.</t>
-  </si>
-  <si>
-    <t>concerns raised in previous discussions on draft-ietf-mno-protocol-10 remain unaddressed. the proposed state synchronization mechanism in section 4.2 exhibits unexpected behavior under high network load, leading to potential inconsistencies. further investigation and corrective measures are essential before supporting adoption.</t>
-  </si>
-  <si>
-    <t>the alterations in draft-ietf-lmn-encoding-08 pose interoperability challenges. the introduction of a new encoding format in section 6.1 lacks compatibility with existing implementations. without a clear migration plan, cannot back the proposed changes.</t>
-  </si>
-  <si>
-    <t>draft-ietf-rst-authentication-13 overlooks critical security considerations. the recommended cryptographic algorithms in section 5.1 are outdated and susceptible to known vulnerabilities. an immediate update addressing these security flaws is necessary before considering adoption.</t>
-  </si>
-  <si>
-    <t>the modifications proposed in draft-ietf-xyz-protocol-12 lack performance optimization. the proposed data encoding method in section 4.1 results in a 20% increase in processing time. without a compelling reason for this sacrifice, cannot endorse the draft.</t>
-  </si>
-  <si>
-    <t>draft-ietf-abc-encoding-09 raises concerns about payload efficiency. the new encoding format outlined in section 7.2 incurs a 25% increase in packet size. a more efficient encoding approach is needed before considering adoption.</t>
-  </si>
-  <si>
-    <t>the changes in draft-ietf-pqr-routing-14 introduce a scalability bottleneck. the proposed path selection algorithm in section 3.3 exhibits suboptimal performance in large-scale networks. until scalability concerns are addressed, cannot support the draft's progression.</t>
   </si>
   <si>
     <t>the purpose of the text is not to mandate 3pcc to be implemented in a specific way. the purpose is to point out that if 3pcc is implemented in a way that the 3pcc controller receives a subsequent bundle offer from an endpoint currently in a session, it needs to convert it into an initial bundle offer before forwarding it to an endpoint that is currently not in a session.</t>
@@ -907,14 +787,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -927,346 +801,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1274,251 +818,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1530,89 +832,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1623,7 +994,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1651,161 +1022,47 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1819,9 +1076,15 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Host Control  1" hidden="1"/>
+        <xdr:cNvPr id="1025" name="Host Control  1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1849,9 +1112,15 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Host Control  2" hidden="1"/>
+        <xdr:cNvPr id="1026" name="Host Control  2" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1879,9 +1148,15 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Host Control  1"/>
+        <xdr:cNvPr id="2" name="Host Control  1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1930,9 +1205,15 @@
       <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Host Control  2"/>
+        <xdr:cNvPr id="3" name="Host Control  2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1" noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -2223,34 +1504,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C280"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="A246" sqref="A246"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2258,7 +1536,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2266,7 +1544,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2274,7 +1552,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2282,7 +1560,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2290,7 +1568,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2298,7 +1576,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2306,7 +1584,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2314,7 +1592,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2322,7 +1600,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2330,7 +1608,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2338,7 +1616,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2346,7 +1624,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2354,7 +1632,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2362,26 +1640,23 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
       <c r="B17">
         <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>-1</v>
@@ -2389,7 +1664,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2397,26 +1672,23 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2424,7 +1696,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2432,7 +1704,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>-1</v>
@@ -2440,7 +1712,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -2448,7 +1720,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2456,7 +1728,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2464,7 +1736,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B28">
         <v>-1</v>
@@ -2472,7 +1744,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2480,7 +1752,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2488,7 +1760,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2496,26 +1768,23 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2523,7 +1792,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2531,7 +1800,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2539,7 +1808,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -2547,7 +1816,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -2555,7 +1824,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -2563,7 +1832,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -2571,7 +1840,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2579,7 +1848,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -2587,7 +1856,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -2595,7 +1864,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -2603,7 +1872,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2611,7 +1880,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B46">
         <v>-1</v>
@@ -2619,7 +1888,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -2627,7 +1896,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2635,7 +1904,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -2643,7 +1912,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2651,7 +1920,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2659,7 +1928,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2667,7 +1936,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2675,7 +1944,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2683,7 +1952,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2691,7 +1960,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -2699,26 +1968,23 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>-1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2726,7 +1992,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2734,7 +2000,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2742,7 +2008,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2750,7 +2016,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2758,7 +2024,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2766,26 +2032,23 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>-1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2793,7 +2056,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2801,7 +2064,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>-1</v>
@@ -2809,7 +2072,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>-1</v>
@@ -2817,7 +2080,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2825,7 +2088,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2833,7 +2096,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2841,105 +2104,87 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B74">
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B75">
         <v>-1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>-1</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B77">
         <v>-1</v>
       </c>
-      <c r="C77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B78">
         <v>-1</v>
       </c>
-      <c r="C78" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B79">
         <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B80">
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B81">
         <v>-1</v>
-      </c>
-      <c r="C81" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B82">
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B83">
         <v>-1</v>
-      </c>
-      <c r="C83" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B84">
         <v>-1</v>
@@ -2947,7 +2192,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B85">
         <v>-1</v>
@@ -2955,7 +2200,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B86">
         <v>-1</v>
@@ -2963,56 +2208,47 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B88">
         <v>-1</v>
       </c>
-      <c r="C88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>-1</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>-1</v>
-      </c>
-      <c r="C91" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3020,7 +2256,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3028,7 +2264,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3036,7 +2272,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3044,7 +2280,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3052,7 +2288,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3060,7 +2296,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3068,7 +2304,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3076,26 +2312,23 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B101">
         <v>-1</v>
-      </c>
-      <c r="C101" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3103,7 +2336,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3111,7 +2344,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3119,7 +2352,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3127,7 +2360,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B106">
         <v>-1</v>
@@ -3135,7 +2368,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3143,7 +2376,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3151,7 +2384,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3159,7 +2392,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3167,7 +2400,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3175,7 +2408,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3183,7 +2416,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -3191,7 +2424,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3199,7 +2432,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3207,7 +2440,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3215,7 +2448,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3223,7 +2456,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3231,7 +2464,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3239,7 +2472,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3247,7 +2480,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -3255,7 +2488,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -3263,7 +2496,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3271,7 +2504,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>-1</v>
@@ -3279,7 +2512,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3287,7 +2520,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3295,7 +2528,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -3303,7 +2536,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3311,7 +2544,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3319,7 +2552,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -3327,7 +2560,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3335,7 +2568,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B132">
         <v>-1</v>
@@ -3343,7 +2576,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -3351,7 +2584,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B134">
         <v>-1</v>
@@ -3359,26 +2592,23 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>-1</v>
-      </c>
-      <c r="C136" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3386,7 +2616,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3394,7 +2624,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -3402,7 +2632,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -3410,7 +2640,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -3418,7 +2648,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3426,7 +2656,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3434,7 +2664,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3442,7 +2672,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B145">
         <v>-1</v>
@@ -3450,7 +2680,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="B146">
         <v>-1</v>
@@ -3458,7 +2688,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3466,7 +2696,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3474,7 +2704,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="B149">
         <v>-1</v>
@@ -3482,7 +2712,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -3490,7 +2720,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3498,7 +2728,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -3506,7 +2736,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3514,7 +2744,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3522,7 +2752,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3530,7 +2760,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3538,7 +2768,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3546,7 +2776,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -3554,7 +2784,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -3562,7 +2792,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B160">
         <v>-1</v>
@@ -3570,7 +2800,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3578,7 +2808,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3586,7 +2816,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B163">
         <v>-1</v>
@@ -3594,7 +2824,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3602,7 +2832,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -3610,7 +2840,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="B166">
         <v>-1</v>
@@ -3618,7 +2848,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -3626,7 +2856,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3634,7 +2864,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3642,7 +2872,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3650,7 +2880,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -3658,7 +2888,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3666,26 +2896,23 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="B174">
         <v>-1</v>
-      </c>
-      <c r="C174" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -3693,7 +2920,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -3701,7 +2928,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -3709,7 +2936,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3717,7 +2944,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3725,7 +2952,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -3733,7 +2960,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3741,7 +2968,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3749,7 +2976,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B183">
         <v>-1</v>
@@ -3757,7 +2984,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -3765,7 +2992,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3773,26 +3000,23 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B186">
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="B187">
         <v>-1</v>
-      </c>
-      <c r="C187" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="B188">
         <v>-1</v>
@@ -3800,7 +3024,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B189">
         <v>-1</v>
@@ -3808,7 +3032,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3816,7 +3040,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -3824,7 +3048,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -3832,7 +3056,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -3840,82 +3064,79 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="B195">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="B196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="B198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B201">
         <v>-1</v>
-      </c>
-      <c r="C201" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B203">
         <v>-1</v>
@@ -3923,7 +3144,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -3931,7 +3152,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="B205">
         <v>-1</v>
@@ -3939,31 +3160,31 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="B207">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>224</v>
+        <v>71</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3971,23 +3192,23 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B210">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="B211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -3995,7 +3216,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -4003,66 +3224,63 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B214">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B215">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="B217">
-        <v>-1</v>
-      </c>
-      <c r="C217" t="s">
-        <v>231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B218">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="B219">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -4070,15 +3288,15 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B223">
         <v>-1</v>
@@ -4086,523 +3304,278 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="B226">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
+        <v>223</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>224</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>227</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>228</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>229</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>230</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>231</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>232</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>233</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>234</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>235</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>236</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>237</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>238</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>239</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>240</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>241</v>
       </c>
-      <c r="B227">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
+      <c r="B245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>242</v>
       </c>
-      <c r="B228">
-        <v>-1</v>
-      </c>
-      <c r="C228" t="s">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>244</v>
-      </c>
-      <c r="B229">
-        <v>-1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>245</v>
-      </c>
-      <c r="B230">
-        <v>-1</v>
-      </c>
-      <c r="C230" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>246</v>
-      </c>
-      <c r="B231">
-        <v>-1</v>
-      </c>
-      <c r="C231" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>247</v>
-      </c>
-      <c r="B232">
-        <v>-1</v>
-      </c>
-      <c r="C232" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>248</v>
-      </c>
-      <c r="B233">
-        <v>-1</v>
-      </c>
-      <c r="C233" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>249</v>
-      </c>
-      <c r="B234">
-        <v>-1</v>
-      </c>
-      <c r="C234" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>250</v>
-      </c>
-      <c r="B235">
-        <v>-1</v>
-      </c>
-      <c r="C235" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>251</v>
-      </c>
-      <c r="B236">
-        <v>-1</v>
-      </c>
-      <c r="C236" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>252</v>
-      </c>
-      <c r="B237">
-        <v>-1</v>
-      </c>
-      <c r="C237" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>253</v>
-      </c>
-      <c r="B238">
-        <v>-1</v>
-      </c>
-      <c r="C238" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>254</v>
-      </c>
-      <c r="B239">
-        <v>-1</v>
-      </c>
-      <c r="C239" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
-      <c r="A240" t="s">
-        <v>255</v>
-      </c>
-      <c r="B240">
-        <v>-1</v>
-      </c>
-      <c r="C240" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
-      <c r="A241" t="s">
-        <v>256</v>
-      </c>
-      <c r="B241">
-        <v>-1</v>
-      </c>
-      <c r="C241" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
-      <c r="A242" t="s">
-        <v>257</v>
-      </c>
-      <c r="B242">
-        <v>-1</v>
-      </c>
-      <c r="C242" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" t="s">
-        <v>258</v>
-      </c>
-      <c r="B243">
-        <v>-1</v>
-      </c>
-      <c r="C243" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" t="s">
-        <v>259</v>
-      </c>
-      <c r="B244">
-        <v>-1</v>
-      </c>
-      <c r="C244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" t="s">
-        <v>260</v>
-      </c>
-      <c r="B245">
-        <v>-1</v>
-      </c>
-      <c r="C245" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" t="s">
-        <v>261</v>
-      </c>
-      <c r="B246">
-        <v>-1</v>
-      </c>
-      <c r="C246" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3">
-      <c r="A247" t="s">
-        <v>262</v>
-      </c>
       <c r="B247">
-        <v>-1</v>
-      </c>
-      <c r="C247" t="s">
-        <v>243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="B248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="B249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>265</v>
+      <c r="A250" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="B250">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B251">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="B252">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>268</v>
+      <c r="A253" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>269</v>
+      <c r="A254" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>270</v>
+      <c r="A255" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B255">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>271</v>
+      <c r="A256" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="B256">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>272</v>
+      <c r="A257" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>273</v>
-      </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>274</v>
-      </c>
-      <c r="B259">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>275</v>
-      </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>276</v>
-      </c>
-      <c r="B261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>277</v>
-      </c>
-      <c r="B262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>278</v>
-      </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>279</v>
-      </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>280</v>
-      </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>281</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>282</v>
-      </c>
-      <c r="B267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>283</v>
-      </c>
-      <c r="B268">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>284</v>
-      </c>
-      <c r="B269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>285</v>
-      </c>
-      <c r="B270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>286</v>
-      </c>
-      <c r="B271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>287</v>
-      </c>
-      <c r="B272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B273">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>289</v>
-      </c>
-      <c r="B274">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>290</v>
-      </c>
-      <c r="B275">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B276">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B277">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B278">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B279">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B280">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>